--- a/Estados Nacionais/brazilian_states.xlsx
+++ b/Estados Nacionais/brazilian_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projetos\Portfolio\Estados Nacionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48170C9B-67AF-492A-B2AB-066A9D791386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FDCB2B-35D7-4927-8378-648B22DF9DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4FEFA3F2-5349-4091-B323-5E4D08576FBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4FEFA3F2-5349-4091-B323-5E4D08576FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Acre</t>
   </si>
@@ -125,27 +125,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>-83.0</t>
-  </si>
-  <si>
-    <t>-38.0</t>
-  </si>
-  <si>
-    <t>-213.0</t>
-  </si>
-  <si>
     <t>acre</t>
   </si>
   <si>
@@ -233,139 +212,157 @@
     <t>state</t>
   </si>
   <si>
-    <t>-478.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
     <t>121.0</t>
   </si>
   <si>
-    <t>416.0</t>
-  </si>
-  <si>
-    <t>-320.0</t>
-  </si>
-  <si>
-    <t>264.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>317.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>-150.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>-105.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>-82.0</t>
-  </si>
-  <si>
-    <t>-166.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>-126.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>404.0</t>
-  </si>
-  <si>
     <t>187.0</t>
   </si>
   <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>-280.0</t>
-  </si>
-  <si>
-    <t>357.0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>216.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>-415.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>-346.0</t>
-  </si>
-  <si>
-    <t>-215.0</t>
-  </si>
-  <si>
-    <t>375.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>-47.0</t>
-  </si>
-  <si>
-    <t>-294.0</t>
-  </si>
-  <si>
-    <t>-265.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
+    <t>-260.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>-186.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>-20.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>-69.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>-84.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>-74.0</t>
+  </si>
+  <si>
+    <t>-71.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>-138.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>-106.0</t>
+  </si>
+  <si>
+    <t>-50.0</t>
+  </si>
+  <si>
+    <t>-204.0</t>
+  </si>
+  <si>
+    <t>-179.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>-137.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>-176.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>-103.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>-56.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
   </si>
   <si>
     <t>70.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -719,23 +716,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3551B57B-58A8-47D9-B6E4-0ED82CA2C1BB}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -744,215 +742,214 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +957,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,13 +971,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,13 +1013,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,13 +1027,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,13 +1041,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,13 +1069,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,13 +1083,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,13 +1111,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
